--- a/4ИСИП-519/МатМоделирование_4ИСИП-519.xlsx
+++ b/4ИСИП-519/МатМоделирование_4ИСИП-519.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\4ИСИП-519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4462EB1-B0D6-41C3-A556-3961DE14DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46C966-31C7-493C-A554-72736B6F4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Алиев Нурлан</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Лаб 5</t>
+  </si>
+  <si>
+    <t>Лаб 6</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -552,7 +555,9 @@
       <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -607,10 +612,18 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
@@ -639,8 +652,12 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -703,10 +720,18 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
@@ -845,12 +870,22 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>

--- a/4ИСИП-519/МатМоделирование_4ИСИП-519.xlsx
+++ b/4ИСИП-519/МатМоделирование_4ИСИП-519.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\4ИСИП-519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46C966-31C7-493C-A554-72736B6F4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD752B8-0849-4442-9FB2-7024F3E65B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -610,8 +610,12 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
@@ -650,8 +654,12 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -702,8 +710,12 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -718,8 +730,12 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
@@ -882,7 +898,9 @@
       <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
       <c r="H22" s="2">
         <v>5</v>
       </c>
@@ -976,7 +994,9 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
